--- a/dataset/dataset_tables/genetics_sic.xlsx
+++ b/dataset/dataset_tables/genetics_sic.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\homeworks\NLP\csv_dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\micha\homeworks\NLP\AgentToBeNamed\dataset\dataset_tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF67138B-97CE-45D6-BE1F-24EDD771BF88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D8E834-A63D-430B-B0F0-D6CE904E6327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14850" yWindow="570" windowWidth="11115" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15975" yWindow="3870" windowWidth="11115" windowHeight="7155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1898,8 +1898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="E112" sqref="E112"/>
+    <sheetView tabSelected="1" topLeftCell="A469" workbookViewId="0">
+      <selection activeCell="E474" sqref="E474"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9959,7 +9959,7 @@
         <v>8.56</v>
       </c>
       <c r="E474">
-        <v>92.36</v>
+        <v>392.36</v>
       </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.25">

--- a/dataset/dataset_tables/genetics_sic.xlsx
+++ b/dataset/dataset_tables/genetics_sic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\micha\homeworks\NLP\AgentToBeNamed\dataset\dataset_tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-22.04\home\micha\homeworks\NLP\AgentToBeNamed\dataset\dataset_tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D8E834-A63D-430B-B0F0-D6CE904E6327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9F022D-D5E3-45F1-88A9-0CB224E3B3D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15975" yWindow="3870" windowWidth="11115" windowHeight="7155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,6 @@
     <t>DNA Sequence ID</t>
   </si>
   <si>
-    <t>Base Pairs &lt;A, T, C, G&gt;</t>
-  </si>
-  <si>
     <t>Gene Expression Levels</t>
   </si>
   <si>
@@ -1529,6 +1526,9 @@
   </si>
   <si>
     <t>AATCATAGTC</t>
+  </si>
+  <si>
+    <t>Base Pairs</t>
   </si>
 </sst>
 </file>
@@ -1898,8 +1898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A469" workbookViewId="0">
-      <selection activeCell="E474" sqref="E474"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1909,16 +1909,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1926,7 +1926,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>441</v>
@@ -1943,7 +1943,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>941</v>
@@ -1960,7 +1960,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>819</v>
@@ -1977,7 +1977,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>35</v>
@@ -1994,7 +1994,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>460</v>
@@ -2011,7 +2011,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>520</v>
@@ -2028,7 +2028,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>371</v>
@@ -2045,7 +2045,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>626</v>
@@ -2062,7 +2062,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>592</v>
@@ -2079,7 +2079,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>504</v>
@@ -2096,7 +2096,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <v>752</v>
@@ -2113,7 +2113,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13">
         <v>674</v>
@@ -2130,7 +2130,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14">
         <v>594</v>
@@ -2147,7 +2147,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15">
         <v>12</v>
@@ -2164,7 +2164,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16">
         <v>335</v>
@@ -2181,7 +2181,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17">
         <v>91</v>
@@ -2198,7 +2198,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18">
         <v>812</v>
@@ -2215,7 +2215,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19">
         <v>366</v>
@@ -2232,7 +2232,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20">
         <v>650</v>
@@ -2249,7 +2249,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21">
         <v>952</v>
@@ -2266,7 +2266,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22">
         <v>238</v>
@@ -2283,7 +2283,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23">
         <v>137</v>
@@ -2300,7 +2300,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24">
         <v>403</v>
@@ -2317,7 +2317,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25">
         <v>561</v>
@@ -2334,7 +2334,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26">
         <v>287</v>
@@ -2351,7 +2351,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27">
         <v>337</v>
@@ -2368,7 +2368,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28">
         <v>948</v>
@@ -2385,7 +2385,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29">
         <v>136</v>
@@ -2402,7 +2402,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C30">
         <v>648</v>
@@ -2419,7 +2419,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C31">
         <v>588</v>
@@ -2436,7 +2436,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32">
         <v>706</v>
@@ -2453,7 +2453,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>336</v>
@@ -2470,7 +2470,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C34">
         <v>168</v>
@@ -2487,7 +2487,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C35">
         <v>736</v>
@@ -2504,7 +2504,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C36">
         <v>440</v>
@@ -2521,7 +2521,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37">
         <v>235</v>
@@ -2538,7 +2538,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C38">
         <v>541</v>
@@ -2555,7 +2555,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C39">
         <v>917</v>
@@ -2572,7 +2572,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C40">
         <v>907</v>
@@ -2589,7 +2589,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C41">
         <v>631</v>
@@ -2606,7 +2606,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C42">
         <v>110</v>
@@ -2623,7 +2623,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C43">
         <v>936</v>
@@ -2640,7 +2640,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C44">
         <v>956</v>
@@ -2657,7 +2657,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C45">
         <v>739</v>
@@ -2674,7 +2674,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C46">
         <v>241</v>
@@ -2691,7 +2691,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C47">
         <v>226</v>
@@ -2708,7 +2708,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C48">
         <v>353</v>
@@ -2725,7 +2725,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C49">
         <v>345</v>
@@ -2742,7 +2742,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C50">
         <v>777</v>
@@ -2759,7 +2759,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C51">
         <v>579</v>
@@ -2776,7 +2776,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C52">
         <v>50</v>
@@ -2793,7 +2793,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C53">
         <v>49</v>
@@ -2810,7 +2810,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C54">
         <v>308</v>
@@ -2827,7 +2827,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C55">
         <v>393</v>
@@ -2844,7 +2844,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C56">
         <v>387</v>
@@ -2861,7 +2861,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C57">
         <v>141</v>
@@ -2878,7 +2878,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C58">
         <v>77</v>
@@ -2895,7 +2895,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C59">
         <v>340</v>
@@ -2912,7 +2912,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C60">
         <v>209</v>
@@ -2929,7 +2929,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C61">
         <v>1000</v>
@@ -2946,7 +2946,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C62">
         <v>73</v>
@@ -2963,7 +2963,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C63">
         <v>80</v>
@@ -2980,7 +2980,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C64">
         <v>80</v>
@@ -2997,7 +2997,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C65">
         <v>760</v>
@@ -3014,7 +3014,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C66">
         <v>748</v>
@@ -3031,7 +3031,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C67">
         <v>240</v>
@@ -3048,7 +3048,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C68">
         <v>532</v>
@@ -3065,7 +3065,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C69">
         <v>914</v>
@@ -3082,7 +3082,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C70">
         <v>650</v>
@@ -3099,7 +3099,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C71">
         <v>340</v>
@@ -3116,7 +3116,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C72">
         <v>671</v>
@@ -3133,7 +3133,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C73">
         <v>808</v>
@@ -3150,7 +3150,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -3167,7 +3167,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C75">
         <v>499</v>
@@ -3184,7 +3184,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C76">
         <v>159</v>
@@ -3201,7 +3201,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C77">
         <v>716</v>
@@ -3218,7 +3218,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C78">
         <v>557</v>
@@ -3235,7 +3235,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C79">
         <v>494</v>
@@ -3252,7 +3252,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C80">
         <v>542</v>
@@ -3269,7 +3269,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C81">
         <v>677</v>
@@ -3286,7 +3286,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C82">
         <v>121</v>
@@ -3303,7 +3303,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C83">
         <v>858</v>
@@ -3320,7 +3320,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C84">
         <v>874</v>
@@ -3337,7 +3337,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C85">
         <v>487</v>
@@ -3354,7 +3354,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C86">
         <v>865</v>
@@ -3371,7 +3371,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C87">
         <v>784</v>
@@ -3388,7 +3388,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C88">
         <v>333</v>
@@ -3405,7 +3405,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C89">
         <v>763</v>
@@ -3422,7 +3422,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C90">
         <v>286</v>
@@ -3439,7 +3439,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91">
         <v>557</v>
@@ -3456,7 +3456,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C92">
         <v>386</v>
@@ -3473,7 +3473,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C93">
         <v>615</v>
@@ -3490,7 +3490,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C94">
         <v>447</v>
@@ -3507,7 +3507,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C95">
         <v>480</v>
@@ -3524,7 +3524,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C96">
         <v>152</v>
@@ -3541,7 +3541,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C97">
         <v>168</v>
@@ -3558,7 +3558,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C98">
         <v>610</v>
@@ -3575,7 +3575,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C99">
         <v>562</v>
@@ -3592,7 +3592,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C100">
         <v>735</v>
@@ -3609,7 +3609,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C101">
         <v>514</v>
@@ -3626,7 +3626,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C102">
         <v>306</v>
@@ -3643,7 +3643,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C103">
         <v>272</v>
@@ -3660,7 +3660,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C104">
         <v>633</v>
@@ -3677,7 +3677,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C105">
         <v>381</v>
@@ -3694,7 +3694,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C106">
         <v>148</v>
@@ -3711,7 +3711,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C107">
         <v>781</v>
@@ -3728,7 +3728,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C108">
         <v>223</v>
@@ -3745,7 +3745,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C109">
         <v>584</v>
@@ -3762,7 +3762,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C110">
         <v>202</v>
@@ -3779,7 +3779,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C111">
         <v>697</v>
@@ -3796,7 +3796,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C112">
         <v>254</v>
@@ -3813,7 +3813,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C113">
         <v>693</v>
@@ -3830,7 +3830,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C114">
         <v>362</v>
@@ -3847,7 +3847,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C115">
         <v>357</v>
@@ -3864,7 +3864,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C116">
         <v>302</v>
@@ -3881,7 +3881,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C117">
         <v>793</v>
@@ -3898,7 +3898,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C118">
         <v>623</v>
@@ -3915,7 +3915,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C119">
         <v>771</v>
@@ -3932,7 +3932,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C120">
         <v>209</v>
@@ -3949,7 +3949,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C121">
         <v>712</v>
@@ -3966,7 +3966,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C122">
         <v>260</v>
@@ -3983,7 +3983,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C123">
         <v>695</v>
@@ -4000,7 +4000,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C124">
         <v>201</v>
@@ -4017,7 +4017,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C125">
         <v>925</v>
@@ -4034,7 +4034,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C126">
         <v>308</v>
@@ -4051,7 +4051,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C127">
         <v>349</v>
@@ -4068,7 +4068,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C128">
         <v>928</v>
@@ -4085,7 +4085,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C129">
         <v>664</v>
@@ -4102,7 +4102,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C130">
         <v>63</v>
@@ -4119,7 +4119,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C131">
         <v>680</v>
@@ -4136,7 +4136,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C132">
         <v>442</v>
@@ -4153,7 +4153,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C133">
         <v>194</v>
@@ -4170,7 +4170,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C134">
         <v>609</v>
@@ -4187,7 +4187,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C135">
         <v>689</v>
@@ -4204,7 +4204,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C136">
         <v>350</v>
@@ -4221,7 +4221,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C137">
         <v>116</v>
@@ -4238,7 +4238,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C138">
         <v>884</v>
@@ -4255,7 +4255,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C139">
         <v>385</v>
@@ -4272,7 +4272,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C140">
         <v>55</v>
@@ -4289,7 +4289,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C141">
         <v>268</v>
@@ -4306,7 +4306,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C142">
         <v>46</v>
@@ -4323,7 +4323,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C143">
         <v>775</v>
@@ -4340,7 +4340,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C144">
         <v>617</v>
@@ -4357,7 +4357,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C145">
         <v>73</v>
@@ -4374,7 +4374,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C146">
         <v>495</v>
@@ -4391,7 +4391,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C147">
         <v>229</v>
@@ -4408,7 +4408,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C148">
         <v>171</v>
@@ -4425,7 +4425,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C149">
         <v>273</v>
@@ -4442,7 +4442,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C150">
         <v>984</v>
@@ -4459,7 +4459,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C151">
         <v>947</v>
@@ -4476,7 +4476,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C152">
         <v>201</v>
@@ -4493,7 +4493,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C153">
         <v>924</v>
@@ -4510,7 +4510,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C154">
         <v>433</v>
@@ -4527,7 +4527,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C155">
         <v>526</v>
@@ -4544,7 +4544,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C156">
         <v>741</v>
@@ -4561,7 +4561,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C157">
         <v>259</v>
@@ -4578,7 +4578,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C158">
         <v>865</v>
@@ -4595,7 +4595,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C159">
         <v>344</v>
@@ -4612,7 +4612,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C160">
         <v>627</v>
@@ -4629,7 +4629,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C161">
         <v>109</v>
@@ -4646,7 +4646,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C162">
         <v>461</v>
@@ -4663,7 +4663,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C163">
         <v>614</v>
@@ -4680,7 +4680,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C164">
         <v>147</v>
@@ -4697,7 +4697,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C165">
         <v>115</v>
@@ -4714,7 +4714,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C166">
         <v>486</v>
@@ -4731,7 +4731,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C167">
         <v>350</v>
@@ -4748,7 +4748,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C168">
         <v>163</v>
@@ -4765,7 +4765,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C169">
         <v>408</v>
@@ -4782,7 +4782,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C170">
         <v>218</v>
@@ -4799,7 +4799,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C171">
         <v>311</v>
@@ -4816,7 +4816,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C172">
         <v>662</v>
@@ -4833,7 +4833,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C173">
         <v>28</v>
@@ -4850,7 +4850,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C174">
         <v>441</v>
@@ -4867,7 +4867,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C175">
         <v>807</v>
@@ -4884,7 +4884,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C176">
         <v>679</v>
@@ -4901,7 +4901,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C177">
         <v>529</v>
@@ -4918,7 +4918,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C178">
         <v>480</v>
@@ -4935,7 +4935,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C179">
         <v>329</v>
@@ -4952,7 +4952,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C180">
         <v>172</v>
@@ -4969,7 +4969,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C181">
         <v>188</v>
@@ -4986,7 +4986,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C182">
         <v>204</v>
@@ -5003,7 +5003,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C183">
         <v>165</v>
@@ -5020,7 +5020,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C184">
         <v>879</v>
@@ -5037,7 +5037,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C185">
         <v>524</v>
@@ -5054,7 +5054,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C186">
         <v>350</v>
@@ -5071,7 +5071,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C187">
         <v>920</v>
@@ -5088,7 +5088,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C188">
         <v>578</v>
@@ -5105,7 +5105,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C189">
         <v>974</v>
@@ -5122,7 +5122,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C190">
         <v>831</v>
@@ -5139,7 +5139,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C191">
         <v>206</v>
@@ -5156,7 +5156,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C192">
         <v>520</v>
@@ -5173,7 +5173,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C193">
         <v>391</v>
@@ -5190,7 +5190,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C194">
         <v>69</v>
@@ -5207,7 +5207,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C195">
         <v>992</v>
@@ -5224,7 +5224,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C196">
         <v>131</v>
@@ -5241,7 +5241,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C197">
         <v>467</v>
@@ -5258,7 +5258,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C198">
         <v>426</v>
@@ -5275,7 +5275,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C199">
         <v>999</v>
@@ -5292,7 +5292,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C200">
         <v>29</v>
@@ -5309,7 +5309,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C201">
         <v>660</v>
@@ -5326,7 +5326,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C202">
         <v>120</v>
@@ -5343,7 +5343,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C203">
         <v>305</v>
@@ -5360,7 +5360,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C204">
         <v>851</v>
@@ -5377,7 +5377,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C205">
         <v>764</v>
@@ -5394,7 +5394,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C206">
         <v>728</v>
@@ -5411,7 +5411,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C207">
         <v>226</v>
@@ -5428,7 +5428,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C208">
         <v>443</v>
@@ -5445,7 +5445,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C209">
         <v>879</v>
@@ -5462,7 +5462,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C210">
         <v>753</v>
@@ -5479,7 +5479,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C211">
         <v>422</v>
@@ -5496,7 +5496,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C212">
         <v>744</v>
@@ -5513,7 +5513,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C213">
         <v>563</v>
@@ -5530,7 +5530,7 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C214">
         <v>147</v>
@@ -5547,7 +5547,7 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C215">
         <v>327</v>
@@ -5564,7 +5564,7 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C216">
         <v>912</v>
@@ -5581,7 +5581,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C217">
         <v>628</v>
@@ -5598,7 +5598,7 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C218">
         <v>552</v>
@@ -5615,7 +5615,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C219">
         <v>417</v>
@@ -5632,7 +5632,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C220">
         <v>375</v>
@@ -5649,7 +5649,7 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C221">
         <v>617</v>
@@ -5666,7 +5666,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C222">
         <v>60</v>
@@ -5683,7 +5683,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C223">
         <v>239</v>
@@ -5700,7 +5700,7 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C224">
         <v>234</v>
@@ -5717,7 +5717,7 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C225">
         <v>65</v>
@@ -5734,7 +5734,7 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C226">
         <v>773</v>
@@ -5751,7 +5751,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C227">
         <v>980</v>
@@ -5768,7 +5768,7 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C228">
         <v>666</v>
@@ -5785,7 +5785,7 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C229">
         <v>392</v>
@@ -5802,7 +5802,7 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C230">
         <v>637</v>
@@ -5819,7 +5819,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C231">
         <v>689</v>
@@ -5836,7 +5836,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C232">
         <v>765</v>
@@ -5853,7 +5853,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C233">
         <v>82</v>
@@ -5870,7 +5870,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C234">
         <v>901</v>
@@ -5887,7 +5887,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C235">
         <v>604</v>
@@ -5904,7 +5904,7 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C236">
         <v>401</v>
@@ -5921,7 +5921,7 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C237">
         <v>519</v>
@@ -5938,7 +5938,7 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C238">
         <v>147</v>
@@ -5955,7 +5955,7 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C239">
         <v>446</v>
@@ -5972,7 +5972,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C240">
         <v>764</v>
@@ -5989,7 +5989,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C241">
         <v>35</v>
@@ -6006,7 +6006,7 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C242">
         <v>174</v>
@@ -6023,7 +6023,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C243">
         <v>138</v>
@@ -6040,7 +6040,7 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C244">
         <v>26</v>
@@ -6057,7 +6057,7 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C245">
         <v>719</v>
@@ -6074,7 +6074,7 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C246">
         <v>306</v>
@@ -6091,7 +6091,7 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C247">
         <v>252</v>
@@ -6108,7 +6108,7 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C248">
         <v>471</v>
@@ -6125,7 +6125,7 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C249">
         <v>108</v>
@@ -6142,7 +6142,7 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C250">
         <v>833</v>
@@ -6159,7 +6159,7 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C251">
         <v>683</v>
@@ -6176,7 +6176,7 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C252">
         <v>566</v>
@@ -6193,7 +6193,7 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C253">
         <v>430</v>
@@ -6210,7 +6210,7 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C254">
         <v>388</v>
@@ -6227,7 +6227,7 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C255">
         <v>536</v>
@@ -6244,7 +6244,7 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C256">
         <v>477</v>
@@ -6261,7 +6261,7 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C257">
         <v>232</v>
@@ -6278,7 +6278,7 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C258">
         <v>970</v>
@@ -6295,7 +6295,7 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C259">
         <v>96</v>
@@ -6312,7 +6312,7 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C260">
         <v>392</v>
@@ -6329,7 +6329,7 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C261">
         <v>327</v>
@@ -6346,7 +6346,7 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C262">
         <v>276</v>
@@ -6363,7 +6363,7 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C263">
         <v>552</v>
@@ -6380,7 +6380,7 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C264">
         <v>977</v>
@@ -6397,7 +6397,7 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C265">
         <v>465</v>
@@ -6414,7 +6414,7 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C266">
         <v>593</v>
@@ -6431,7 +6431,7 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C267">
         <v>930</v>
@@ -6448,7 +6448,7 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C268">
         <v>457</v>
@@ -6465,7 +6465,7 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C269">
         <v>159</v>
@@ -6482,7 +6482,7 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C270">
         <v>771</v>
@@ -6499,7 +6499,7 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C271">
         <v>164</v>
@@ -6516,7 +6516,7 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C272">
         <v>397</v>
@@ -6533,7 +6533,7 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C273">
         <v>24</v>
@@ -6550,7 +6550,7 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C274">
         <v>141</v>
@@ -6567,7 +6567,7 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C275">
         <v>625</v>
@@ -6584,7 +6584,7 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C276">
         <v>19</v>
@@ -6601,7 +6601,7 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C277">
         <v>678</v>
@@ -6618,7 +6618,7 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C278">
         <v>583</v>
@@ -6635,7 +6635,7 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C279">
         <v>263</v>
@@ -6652,7 +6652,7 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C280">
         <v>418</v>
@@ -6669,7 +6669,7 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C281">
         <v>705</v>
@@ -6686,7 +6686,7 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C282">
         <v>410</v>
@@ -6703,7 +6703,7 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C283">
         <v>82</v>
@@ -6720,7 +6720,7 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C284">
         <v>170</v>
@@ -6737,7 +6737,7 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C285">
         <v>725</v>
@@ -6754,7 +6754,7 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C286">
         <v>808</v>
@@ -6771,7 +6771,7 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C287">
         <v>90</v>
@@ -6788,7 +6788,7 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C288">
         <v>573</v>
@@ -6805,7 +6805,7 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C289">
         <v>22</v>
@@ -6822,7 +6822,7 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C290">
         <v>235</v>
@@ -6839,7 +6839,7 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C291">
         <v>771</v>
@@ -6856,7 +6856,7 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C292">
         <v>841</v>
@@ -6873,7 +6873,7 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C293">
         <v>874</v>
@@ -6890,7 +6890,7 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C294">
         <v>344</v>
@@ -6907,7 +6907,7 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C295">
         <v>478</v>
@@ -6924,7 +6924,7 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C296">
         <v>818</v>
@@ -6941,7 +6941,7 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C297">
         <v>808</v>
@@ -6958,7 +6958,7 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C298">
         <v>11</v>
@@ -6975,7 +6975,7 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C299">
         <v>283</v>
@@ -6992,7 +6992,7 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C300">
         <v>691</v>
@@ -7009,7 +7009,7 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C301">
         <v>558</v>
@@ -7026,7 +7026,7 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C302">
         <v>28</v>
@@ -7043,7 +7043,7 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C303">
         <v>982</v>
@@ -7060,7 +7060,7 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C304">
         <v>772</v>
@@ -7077,7 +7077,7 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C305">
         <v>273</v>
@@ -7094,7 +7094,7 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C306">
         <v>571</v>
@@ -7111,7 +7111,7 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C307">
         <v>115</v>
@@ -7128,7 +7128,7 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C308">
         <v>672</v>
@@ -7145,7 +7145,7 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C309">
         <v>810</v>
@@ -7162,7 +7162,7 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C310">
         <v>258</v>
@@ -7179,7 +7179,7 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C311">
         <v>535</v>
@@ -7196,7 +7196,7 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C312">
         <v>378</v>
@@ -7213,7 +7213,7 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C313">
         <v>155</v>
@@ -7230,7 +7230,7 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C314">
         <v>654</v>
@@ -7247,7 +7247,7 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C315">
         <v>571</v>
@@ -7264,7 +7264,7 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C316">
         <v>507</v>
@@ -7281,7 +7281,7 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C317">
         <v>393</v>
@@ -7298,7 +7298,7 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C318">
         <v>273</v>
@@ -7315,7 +7315,7 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C319">
         <v>821</v>
@@ -7332,7 +7332,7 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C320">
         <v>491</v>
@@ -7349,7 +7349,7 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C321">
         <v>402</v>
@@ -7366,7 +7366,7 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C322">
         <v>808</v>
@@ -7383,7 +7383,7 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C323">
         <v>747</v>
@@ -7400,7 +7400,7 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C324">
         <v>512</v>
@@ -7417,7 +7417,7 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C325">
         <v>817</v>
@@ -7434,7 +7434,7 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C326">
         <v>37</v>
@@ -7451,7 +7451,7 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C327">
         <v>445</v>
@@ -7468,7 +7468,7 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C328">
         <v>553</v>
@@ -7485,7 +7485,7 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C329">
         <v>645</v>
@@ -7502,7 +7502,7 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C330">
         <v>271</v>
@@ -7519,7 +7519,7 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C331">
         <v>68</v>
@@ -7536,7 +7536,7 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C332">
         <v>455</v>
@@ -7553,7 +7553,7 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C333">
         <v>403</v>
@@ -7570,7 +7570,7 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C334">
         <v>644</v>
@@ -7587,7 +7587,7 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C335">
         <v>517</v>
@@ -7604,7 +7604,7 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C336">
         <v>488</v>
@@ -7621,7 +7621,7 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C337">
         <v>44</v>
@@ -7638,7 +7638,7 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C338">
         <v>763</v>
@@ -7655,7 +7655,7 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C339">
         <v>27</v>
@@ -7672,7 +7672,7 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C340">
         <v>92</v>
@@ -7689,7 +7689,7 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C341">
         <v>461</v>
@@ -7706,7 +7706,7 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C342">
         <v>482</v>
@@ -7723,7 +7723,7 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C343">
         <v>121</v>
@@ -7740,7 +7740,7 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C344">
         <v>713</v>
@@ -7757,7 +7757,7 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C345">
         <v>850</v>
@@ -7774,7 +7774,7 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C346">
         <v>241</v>
@@ -7791,7 +7791,7 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C347">
         <v>94</v>
@@ -7808,7 +7808,7 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C348">
         <v>910</v>
@@ -7825,7 +7825,7 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C349">
         <v>989</v>
@@ -7842,7 +7842,7 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C350">
         <v>657</v>
@@ -7859,7 +7859,7 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C351">
         <v>548</v>
@@ -7876,7 +7876,7 @@
         <v>351</v>
       </c>
       <c r="B352" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C352">
         <v>324</v>
@@ -7893,7 +7893,7 @@
         <v>352</v>
       </c>
       <c r="B353" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C353">
         <v>926</v>
@@ -7910,7 +7910,7 @@
         <v>353</v>
       </c>
       <c r="B354" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C354">
         <v>880</v>
@@ -7927,7 +7927,7 @@
         <v>354</v>
       </c>
       <c r="B355" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C355">
         <v>875</v>
@@ -7944,7 +7944,7 @@
         <v>355</v>
       </c>
       <c r="B356" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C356">
         <v>94</v>
@@ -7961,7 +7961,7 @@
         <v>356</v>
       </c>
       <c r="B357" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C357">
         <v>324</v>
@@ -7978,7 +7978,7 @@
         <v>357</v>
       </c>
       <c r="B358" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C358">
         <v>345</v>
@@ -7995,7 +7995,7 @@
         <v>358</v>
       </c>
       <c r="B359" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C359">
         <v>714</v>
@@ -8012,7 +8012,7 @@
         <v>359</v>
       </c>
       <c r="B360" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C360">
         <v>233</v>
@@ -8029,7 +8029,7 @@
         <v>360</v>
       </c>
       <c r="B361" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C361">
         <v>132</v>
@@ -8046,7 +8046,7 @@
         <v>361</v>
       </c>
       <c r="B362" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C362">
         <v>806</v>
@@ -8063,7 +8063,7 @@
         <v>362</v>
       </c>
       <c r="B363" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C363">
         <v>876</v>
@@ -8080,7 +8080,7 @@
         <v>363</v>
       </c>
       <c r="B364" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C364">
         <v>316</v>
@@ -8097,7 +8097,7 @@
         <v>364</v>
       </c>
       <c r="B365" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C365">
         <v>984</v>
@@ -8114,7 +8114,7 @@
         <v>365</v>
       </c>
       <c r="B366" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C366">
         <v>850</v>
@@ -8131,7 +8131,7 @@
         <v>366</v>
       </c>
       <c r="B367" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C367">
         <v>803</v>
@@ -8148,7 +8148,7 @@
         <v>367</v>
       </c>
       <c r="B368" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C368">
         <v>599</v>
@@ -8165,7 +8165,7 @@
         <v>368</v>
       </c>
       <c r="B369" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C369">
         <v>349</v>
@@ -8182,7 +8182,7 @@
         <v>369</v>
       </c>
       <c r="B370" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C370">
         <v>529</v>
@@ -8199,7 +8199,7 @@
         <v>370</v>
       </c>
       <c r="B371" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C371">
         <v>778</v>
@@ -8216,7 +8216,7 @@
         <v>371</v>
       </c>
       <c r="B372" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C372">
         <v>610</v>
@@ -8233,7 +8233,7 @@
         <v>372</v>
       </c>
       <c r="B373" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C373">
         <v>315</v>
@@ -8250,7 +8250,7 @@
         <v>373</v>
       </c>
       <c r="B374" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C374">
         <v>865</v>
@@ -8267,7 +8267,7 @@
         <v>374</v>
       </c>
       <c r="B375" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C375">
         <v>909</v>
@@ -8284,7 +8284,7 @@
         <v>375</v>
       </c>
       <c r="B376" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C376">
         <v>473</v>
@@ -8301,7 +8301,7 @@
         <v>376</v>
       </c>
       <c r="B377" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C377">
         <v>218</v>
@@ -8318,7 +8318,7 @@
         <v>377</v>
       </c>
       <c r="B378" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C378">
         <v>521</v>
@@ -8335,7 +8335,7 @@
         <v>378</v>
       </c>
       <c r="B379" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C379">
         <v>533</v>
@@ -8352,7 +8352,7 @@
         <v>379</v>
       </c>
       <c r="B380" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C380">
         <v>972</v>
@@ -8369,7 +8369,7 @@
         <v>380</v>
       </c>
       <c r="B381" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C381">
         <v>29</v>
@@ -8386,7 +8386,7 @@
         <v>381</v>
       </c>
       <c r="B382" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C382">
         <v>882</v>
@@ -8403,7 +8403,7 @@
         <v>382</v>
       </c>
       <c r="B383" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C383">
         <v>846</v>
@@ -8420,7 +8420,7 @@
         <v>383</v>
       </c>
       <c r="B384" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C384">
         <v>479</v>
@@ -8437,7 +8437,7 @@
         <v>384</v>
       </c>
       <c r="B385" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C385">
         <v>259</v>
@@ -8454,7 +8454,7 @@
         <v>385</v>
       </c>
       <c r="B386" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C386">
         <v>986</v>
@@ -8471,7 +8471,7 @@
         <v>386</v>
       </c>
       <c r="B387" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C387">
         <v>753</v>
@@ -8488,7 +8488,7 @@
         <v>387</v>
       </c>
       <c r="B388" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C388">
         <v>650</v>
@@ -8505,7 +8505,7 @@
         <v>388</v>
       </c>
       <c r="B389" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C389">
         <v>919</v>
@@ -8522,7 +8522,7 @@
         <v>389</v>
       </c>
       <c r="B390" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C390">
         <v>767</v>
@@ -8539,7 +8539,7 @@
         <v>390</v>
       </c>
       <c r="B391" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C391">
         <v>866</v>
@@ -8556,7 +8556,7 @@
         <v>391</v>
       </c>
       <c r="B392" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C392">
         <v>58</v>
@@ -8573,7 +8573,7 @@
         <v>392</v>
       </c>
       <c r="B393" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C393">
         <v>645</v>
@@ -8590,7 +8590,7 @@
         <v>393</v>
       </c>
       <c r="B394" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C394">
         <v>452</v>
@@ -8607,7 +8607,7 @@
         <v>394</v>
       </c>
       <c r="B395" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C395">
         <v>939</v>
@@ -8624,7 +8624,7 @@
         <v>395</v>
       </c>
       <c r="B396" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C396">
         <v>371</v>
@@ -8641,7 +8641,7 @@
         <v>396</v>
       </c>
       <c r="B397" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C397">
         <v>890</v>
@@ -8658,7 +8658,7 @@
         <v>397</v>
       </c>
       <c r="B398" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C398">
         <v>523</v>
@@ -8675,7 +8675,7 @@
         <v>398</v>
       </c>
       <c r="B399" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C399">
         <v>789</v>
@@ -8692,7 +8692,7 @@
         <v>399</v>
       </c>
       <c r="B400" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C400">
         <v>492</v>
@@ -8709,7 +8709,7 @@
         <v>400</v>
       </c>
       <c r="B401" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C401">
         <v>447</v>
@@ -8726,7 +8726,7 @@
         <v>401</v>
       </c>
       <c r="B402" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C402">
         <v>281</v>
@@ -8743,7 +8743,7 @@
         <v>402</v>
       </c>
       <c r="B403" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C403">
         <v>420</v>
@@ -8760,7 +8760,7 @@
         <v>403</v>
       </c>
       <c r="B404" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C404">
         <v>176</v>
@@ -8777,7 +8777,7 @@
         <v>404</v>
       </c>
       <c r="B405" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C405">
         <v>576</v>
@@ -8794,7 +8794,7 @@
         <v>405</v>
       </c>
       <c r="B406" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C406">
         <v>758</v>
@@ -8811,7 +8811,7 @@
         <v>406</v>
       </c>
       <c r="B407" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C407">
         <v>44</v>
@@ -8828,7 +8828,7 @@
         <v>407</v>
       </c>
       <c r="B408" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C408">
         <v>535</v>
@@ -8845,7 +8845,7 @@
         <v>408</v>
       </c>
       <c r="B409" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C409">
         <v>829</v>
@@ -8862,7 +8862,7 @@
         <v>409</v>
       </c>
       <c r="B410" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C410">
         <v>407</v>
@@ -8879,7 +8879,7 @@
         <v>410</v>
       </c>
       <c r="B411" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C411">
         <v>166</v>
@@ -8896,7 +8896,7 @@
         <v>411</v>
       </c>
       <c r="B412" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C412">
         <v>919</v>
@@ -8913,7 +8913,7 @@
         <v>412</v>
       </c>
       <c r="B413" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C413">
         <v>133</v>
@@ -8930,7 +8930,7 @@
         <v>413</v>
       </c>
       <c r="B414" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C414">
         <v>893</v>
@@ -8947,7 +8947,7 @@
         <v>414</v>
       </c>
       <c r="B415" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C415">
         <v>644</v>
@@ -8964,7 +8964,7 @@
         <v>415</v>
       </c>
       <c r="B416" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C416">
         <v>349</v>
@@ -8981,7 +8981,7 @@
         <v>416</v>
       </c>
       <c r="B417" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C417">
         <v>344</v>
@@ -8998,7 +8998,7 @@
         <v>417</v>
       </c>
       <c r="B418" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C418">
         <v>701</v>
@@ -9015,7 +9015,7 @@
         <v>418</v>
       </c>
       <c r="B419" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C419">
         <v>10</v>
@@ -9032,7 +9032,7 @@
         <v>419</v>
       </c>
       <c r="B420" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C420">
         <v>809</v>
@@ -9049,7 +9049,7 @@
         <v>420</v>
       </c>
       <c r="B421" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C421">
         <v>45</v>
@@ -9066,7 +9066,7 @@
         <v>421</v>
       </c>
       <c r="B422" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C422">
         <v>326</v>
@@ -9083,7 +9083,7 @@
         <v>422</v>
       </c>
       <c r="B423" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C423">
         <v>178</v>
@@ -9100,7 +9100,7 @@
         <v>423</v>
       </c>
       <c r="B424" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C424">
         <v>886</v>
@@ -9117,7 +9117,7 @@
         <v>424</v>
       </c>
       <c r="B425" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C425">
         <v>837</v>
@@ -9134,7 +9134,7 @@
         <v>425</v>
       </c>
       <c r="B426" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C426">
         <v>846</v>
@@ -9151,7 +9151,7 @@
         <v>426</v>
       </c>
       <c r="B427" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C427">
         <v>799</v>
@@ -9168,7 +9168,7 @@
         <v>427</v>
       </c>
       <c r="B428" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C428">
         <v>450</v>
@@ -9185,7 +9185,7 @@
         <v>428</v>
       </c>
       <c r="B429" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C429">
         <v>303</v>
@@ -9202,7 +9202,7 @@
         <v>429</v>
       </c>
       <c r="B430" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C430">
         <v>910</v>
@@ -9219,7 +9219,7 @@
         <v>430</v>
       </c>
       <c r="B431" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C431">
         <v>298</v>
@@ -9236,7 +9236,7 @@
         <v>431</v>
       </c>
       <c r="B432" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C432">
         <v>223</v>
@@ -9253,7 +9253,7 @@
         <v>432</v>
       </c>
       <c r="B433" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C433">
         <v>565</v>
@@ -9270,7 +9270,7 @@
         <v>433</v>
       </c>
       <c r="B434" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C434">
         <v>720</v>
@@ -9287,7 +9287,7 @@
         <v>434</v>
       </c>
       <c r="B435" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C435">
         <v>168</v>
@@ -9304,7 +9304,7 @@
         <v>435</v>
       </c>
       <c r="B436" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C436">
         <v>300</v>
@@ -9321,7 +9321,7 @@
         <v>436</v>
       </c>
       <c r="B437" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C437">
         <v>383</v>
@@ -9338,7 +9338,7 @@
         <v>437</v>
       </c>
       <c r="B438" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C438">
         <v>201</v>
@@ -9355,7 +9355,7 @@
         <v>438</v>
       </c>
       <c r="B439" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C439">
         <v>452</v>
@@ -9372,7 +9372,7 @@
         <v>439</v>
       </c>
       <c r="B440" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C440">
         <v>9</v>
@@ -9389,7 +9389,7 @@
         <v>440</v>
       </c>
       <c r="B441" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C441">
         <v>355</v>
@@ -9406,7 +9406,7 @@
         <v>441</v>
       </c>
       <c r="B442" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C442">
         <v>856</v>
@@ -9423,7 +9423,7 @@
         <v>442</v>
       </c>
       <c r="B443" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C443">
         <v>123</v>
@@ -9440,7 +9440,7 @@
         <v>443</v>
       </c>
       <c r="B444" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C444">
         <v>674</v>
@@ -9457,7 +9457,7 @@
         <v>444</v>
       </c>
       <c r="B445" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C445">
         <v>280</v>
@@ -9474,7 +9474,7 @@
         <v>445</v>
       </c>
       <c r="B446" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C446">
         <v>798</v>
@@ -9491,7 +9491,7 @@
         <v>446</v>
       </c>
       <c r="B447" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C447">
         <v>320</v>
@@ -9508,7 +9508,7 @@
         <v>447</v>
       </c>
       <c r="B448" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C448">
         <v>938</v>
@@ -9525,7 +9525,7 @@
         <v>448</v>
       </c>
       <c r="B449" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C449">
         <v>302</v>
@@ -9542,7 +9542,7 @@
         <v>449</v>
       </c>
       <c r="B450" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C450">
         <v>17</v>
@@ -9559,7 +9559,7 @@
         <v>450</v>
       </c>
       <c r="B451" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C451">
         <v>403</v>
@@ -9576,7 +9576,7 @@
         <v>451</v>
       </c>
       <c r="B452" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C452">
         <v>298</v>
@@ -9593,7 +9593,7 @@
         <v>452</v>
       </c>
       <c r="B453" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C453">
         <v>977</v>
@@ -9610,7 +9610,7 @@
         <v>453</v>
       </c>
       <c r="B454" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C454">
         <v>237</v>
@@ -9627,7 +9627,7 @@
         <v>454</v>
       </c>
       <c r="B455" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C455">
         <v>284</v>
@@ -9644,7 +9644,7 @@
         <v>455</v>
       </c>
       <c r="B456" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C456">
         <v>286</v>
@@ -9661,7 +9661,7 @@
         <v>456</v>
       </c>
       <c r="B457" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C457">
         <v>251</v>
@@ -9678,7 +9678,7 @@
         <v>457</v>
       </c>
       <c r="B458" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C458">
         <v>846</v>
@@ -9695,7 +9695,7 @@
         <v>458</v>
       </c>
       <c r="B459" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C459">
         <v>272</v>
@@ -9712,7 +9712,7 @@
         <v>459</v>
       </c>
       <c r="B460" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C460">
         <v>495</v>
@@ -9729,7 +9729,7 @@
         <v>460</v>
       </c>
       <c r="B461" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C461">
         <v>514</v>
@@ -9746,7 +9746,7 @@
         <v>461</v>
       </c>
       <c r="B462" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C462">
         <v>557</v>
@@ -9763,7 +9763,7 @@
         <v>462</v>
       </c>
       <c r="B463" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C463">
         <v>702</v>
@@ -9780,7 +9780,7 @@
         <v>463</v>
       </c>
       <c r="B464" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C464">
         <v>871</v>
@@ -9797,7 +9797,7 @@
         <v>464</v>
       </c>
       <c r="B465" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C465">
         <v>602</v>
@@ -9814,7 +9814,7 @@
         <v>465</v>
       </c>
       <c r="B466" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C466">
         <v>654</v>
@@ -9831,7 +9831,7 @@
         <v>466</v>
       </c>
       <c r="B467" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C467">
         <v>752</v>
@@ -9848,7 +9848,7 @@
         <v>467</v>
       </c>
       <c r="B468" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C468">
         <v>775</v>
@@ -9865,7 +9865,7 @@
         <v>468</v>
       </c>
       <c r="B469" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C469">
         <v>403</v>
@@ -9882,7 +9882,7 @@
         <v>469</v>
       </c>
       <c r="B470" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C470">
         <v>187</v>
@@ -9899,7 +9899,7 @@
         <v>470</v>
       </c>
       <c r="B471" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C471">
         <v>669</v>
@@ -9916,7 +9916,7 @@
         <v>471</v>
       </c>
       <c r="B472" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C472">
         <v>154</v>
@@ -9933,7 +9933,7 @@
         <v>472</v>
       </c>
       <c r="B473" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C473">
         <v>636</v>
@@ -9950,7 +9950,7 @@
         <v>473</v>
       </c>
       <c r="B474" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C474">
         <v>427</v>
@@ -9967,7 +9967,7 @@
         <v>474</v>
       </c>
       <c r="B475" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C475">
         <v>456</v>
@@ -9984,7 +9984,7 @@
         <v>475</v>
       </c>
       <c r="B476" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C476">
         <v>757</v>
@@ -10001,7 +10001,7 @@
         <v>476</v>
       </c>
       <c r="B477" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C477">
         <v>382</v>
@@ -10018,7 +10018,7 @@
         <v>477</v>
       </c>
       <c r="B478" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C478">
         <v>511</v>
@@ -10035,7 +10035,7 @@
         <v>478</v>
       </c>
       <c r="B479" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C479">
         <v>15</v>
@@ -10052,7 +10052,7 @@
         <v>479</v>
       </c>
       <c r="B480" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C480">
         <v>78</v>
@@ -10069,7 +10069,7 @@
         <v>480</v>
       </c>
       <c r="B481" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C481">
         <v>962</v>
@@ -10086,7 +10086,7 @@
         <v>481</v>
       </c>
       <c r="B482" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C482">
         <v>355</v>
@@ -10103,7 +10103,7 @@
         <v>482</v>
       </c>
       <c r="B483" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C483">
         <v>391</v>
@@ -10120,7 +10120,7 @@
         <v>483</v>
       </c>
       <c r="B484" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C484">
         <v>422</v>
@@ -10137,7 +10137,7 @@
         <v>484</v>
       </c>
       <c r="B485" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C485">
         <v>499</v>
@@ -10154,7 +10154,7 @@
         <v>485</v>
       </c>
       <c r="B486" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C486">
         <v>743</v>
@@ -10171,7 +10171,7 @@
         <v>486</v>
       </c>
       <c r="B487" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C487">
         <v>668</v>
@@ -10188,7 +10188,7 @@
         <v>487</v>
       </c>
       <c r="B488" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C488">
         <v>482</v>
@@ -10205,7 +10205,7 @@
         <v>488</v>
       </c>
       <c r="B489" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C489">
         <v>970</v>
@@ -10222,7 +10222,7 @@
         <v>489</v>
       </c>
       <c r="B490" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C490">
         <v>498</v>
@@ -10239,7 +10239,7 @@
         <v>490</v>
       </c>
       <c r="B491" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C491">
         <v>864</v>
@@ -10256,7 +10256,7 @@
         <v>491</v>
       </c>
       <c r="B492" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C492">
         <v>705</v>
@@ -10273,7 +10273,7 @@
         <v>492</v>
       </c>
       <c r="B493" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C493">
         <v>199</v>
@@ -10290,7 +10290,7 @@
         <v>493</v>
       </c>
       <c r="B494" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C494">
         <v>248</v>
@@ -10307,7 +10307,7 @@
         <v>494</v>
       </c>
       <c r="B495" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C495">
         <v>316</v>
@@ -10324,7 +10324,7 @@
         <v>495</v>
       </c>
       <c r="B496" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C496">
         <v>642</v>
@@ -10341,7 +10341,7 @@
         <v>496</v>
       </c>
       <c r="B497" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C497">
         <v>53</v>
@@ -10358,7 +10358,7 @@
         <v>497</v>
       </c>
       <c r="B498" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C498">
         <v>724</v>
@@ -10375,7 +10375,7 @@
         <v>498</v>
       </c>
       <c r="B499" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C499">
         <v>992</v>
@@ -10392,7 +10392,7 @@
         <v>499</v>
       </c>
       <c r="B500" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C500">
         <v>114</v>
@@ -10409,7 +10409,7 @@
         <v>500</v>
       </c>
       <c r="B501" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C501">
         <v>808</v>
